--- a/timestamp/xlsx/segmentation_summary.xlsx
+++ b/timestamp/xlsx/segmentation_summary.xlsx
@@ -523,9 +523,6 @@
     <t xml:space="preserve">Stopped too early </t>
   </si>
   <si>
-    <t>subject didn't appear (wrong timestamp)</t>
-  </si>
-  <si>
     <t>subject didn't appear + wrong timestamp)</t>
   </si>
   <si>
@@ -566,6 +563,9 @@
   </si>
   <si>
     <t>18476 - 21682</t>
+  </si>
+  <si>
+    <t>timestamp is fixed manually</t>
   </si>
 </sst>
 </file>
@@ -663,7 +663,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -671,7 +671,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="21" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -960,15 +959,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -1017,28 +1016,25 @@
       <c r="P1" t="s">
         <v>73</v>
       </c>
-      <c r="Q1" s="5" t="s">
-        <v>154</v>
-      </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="12">
+        <v>93</v>
+      </c>
+      <c r="B2" s="11">
         <v>0.59921296296296289</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="11">
         <v>0.59979166666666661</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <v>0.60025462962962961</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="11">
         <f>D2 + TIME(,1,30)</f>
         <v>0.60129629629629633</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="11">
         <v>0.60453703703703698</v>
       </c>
       <c r="G2" s="5">
@@ -1068,29 +1064,29 @@
       <c r="O2" s="5">
         <v>0.60592592592592587</v>
       </c>
-      <c r="P2" s="12">
+      <c r="P2" s="11">
         <v>0.60598379629629628</v>
       </c>
       <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="12">
+        <v>94</v>
+      </c>
+      <c r="B3" s="11">
         <v>0.62321759259259257</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>0.62391203703703701</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>0.62432870370370364</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <f t="shared" ref="E3" si="0">D3 + TIME(,1,30)</f>
         <v>0.62537037037037035</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="11">
         <v>0.62795138888888891</v>
       </c>
       <c r="G3" s="5">
@@ -1120,14 +1116,14 @@
       <c r="O3" s="5">
         <v>0.62884259259259268</v>
       </c>
-      <c r="P3" s="12">
+      <c r="P3" s="11">
         <v>0.62890046296296298</v>
       </c>
       <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="B4" s="5">
         <v>0.65233796296296298</v>
@@ -1135,7 +1131,7 @@
       <c r="C4" s="5">
         <v>0.65378472222222217</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>0.65413194444444445</v>
       </c>
       <c r="E4" s="5">
@@ -1172,14 +1168,14 @@
       <c r="O4" s="5">
         <v>0.65812499999999996</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="7">
         <v>0.65815972222222219</v>
       </c>
       <c r="Q4" s="5"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="B5" s="5">
         <v>0.67094907407407411</v>
@@ -1224,14 +1220,14 @@
       <c r="O5" s="5">
         <v>0.6759722222222222</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="7">
         <v>0.67601851851851846</v>
       </c>
       <c r="Q5" s="5"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="B6" s="5">
         <v>0.69106481481481474</v>
@@ -1246,7 +1242,7 @@
         <f t="shared" si="1"/>
         <v>0.69275462962962964</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>0.69530092592592596</v>
       </c>
       <c r="G6" s="5">
@@ -1283,7 +1279,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="B7" s="5">
         <v>0.45510416666666664</v>
@@ -1335,7 +1331,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="B8" s="5">
         <v>0.47420138888888891</v>
@@ -1387,7 +1383,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="B9" s="5">
         <v>0.48486111111111113</v>
@@ -1439,22 +1435,22 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="12">
+        <v>101</v>
+      </c>
+      <c r="B10" s="11">
         <v>0.50486111111111109</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>0.50523148148148145</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <v>0.5055439814814815</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <f t="shared" si="2"/>
         <v>0.50658564814814822</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <v>0.50851851851851848</v>
       </c>
       <c r="G10" s="5">
@@ -1484,14 +1480,14 @@
       <c r="O10" s="5">
         <v>0.50991898148148151</v>
       </c>
-      <c r="P10" s="12">
+      <c r="P10" s="11">
         <v>0.51004629629629628</v>
       </c>
       <c r="Q10" s="5"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="B11" s="5">
         <v>0.52978009259259262</v>
@@ -1543,7 +1539,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="B12" s="5">
         <v>0.6075694444444445</v>
@@ -1595,7 +1591,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="B13" s="5">
         <v>0.6325115740740741</v>
@@ -1647,7 +1643,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="B14" s="5">
         <v>0.64478009259259261</v>
@@ -1699,7 +1695,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="B15" s="5">
         <v>0.66819444444444442</v>
@@ -1751,7 +1747,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5">
         <v>0.68200231481481488</v>
@@ -1803,7 +1799,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="B17" s="5">
         <v>0.43438657407407405</v>
@@ -1855,7 +1851,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="B18" s="5">
         <v>0.44729166666666664</v>
@@ -1907,7 +1903,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="B19" s="5">
         <v>0.46562500000000001</v>
@@ -1959,7 +1955,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="B20" s="5">
         <v>0.47851851851851851</v>
@@ -2011,7 +2007,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="B21" s="5">
         <v>0.49055555555555558</v>
@@ -2063,7 +2059,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="B22" s="5">
         <v>0.5003819444444445</v>
@@ -2115,7 +2111,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="B23" s="5">
         <v>0.51060185185185192</v>
@@ -2167,7 +2163,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="B24" s="5">
         <v>0.59297453703703706</v>
@@ -2219,7 +2215,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="B25" s="5">
         <v>0.60596064814814821</v>
@@ -2271,7 +2267,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>117</v>
       </c>
       <c r="B26" s="5">
         <v>0.61781249999999999</v>
@@ -2323,7 +2319,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="B27" s="5">
         <v>0.62701388888888887</v>
@@ -2375,7 +2371,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="B28" s="5">
         <v>0.63751157407407411</v>
@@ -2427,7 +2423,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="B29" s="5">
         <v>0.6489583333333333</v>
@@ -2479,7 +2475,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="B30" s="5">
         <v>0.66090277777777773</v>
@@ -2531,7 +2527,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="B31" s="5">
         <v>0.67608796296296303</v>
@@ -2582,60 +2578,60 @@
       <c r="Q31" s="5"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" s="12">
+      <c r="A32" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32" s="11">
         <v>0.68753472222222223</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="11">
         <v>0.68788194444444439</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="11">
         <v>0.68834490740740739</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="11">
         <f t="shared" si="2"/>
         <v>0.68938657407407411</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F32" s="11">
         <v>0.69160879629629635</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G32" s="11">
         <v>0.69160879629629635</v>
       </c>
-      <c r="H32" s="12">
+      <c r="H32" s="11">
         <v>0.69173611111111111</v>
       </c>
-      <c r="I32" s="12">
+      <c r="I32" s="11">
         <v>0.69182870370370375</v>
       </c>
-      <c r="J32" s="12">
+      <c r="J32" s="11">
         <v>0.69199074074074074</v>
       </c>
-      <c r="K32" s="12">
+      <c r="K32" s="11">
         <v>0.69208333333333327</v>
       </c>
-      <c r="L32" s="12">
+      <c r="L32" s="11">
         <v>0.69218750000000007</v>
       </c>
-      <c r="M32" s="12">
+      <c r="M32" s="11">
         <v>0.6922800925925926</v>
       </c>
-      <c r="N32" s="12">
+      <c r="N32" s="11">
         <v>0.69170138888888888</v>
       </c>
-      <c r="O32" s="12">
+      <c r="O32" s="11">
         <v>0.69268518518518529</v>
       </c>
-      <c r="P32" s="12">
+      <c r="P32" s="11">
         <v>0.69273148148148145</v>
       </c>
       <c r="Q32" s="5"/>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5">
@@ -2685,7 +2681,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5">
@@ -2735,7 +2731,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5">
@@ -2785,7 +2781,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5" t="s">
@@ -2835,7 +2831,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5">
@@ -2854,7 +2850,7 @@
       <c r="G37" s="5">
         <v>0.49461805555555555</v>
       </c>
-      <c r="H37" s="12">
+      <c r="H37" s="11">
         <v>0.49469907407407404</v>
       </c>
       <c r="I37" s="5">
@@ -2885,7 +2881,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5">
@@ -2935,7 +2931,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5">
@@ -2960,13 +2956,13 @@
       <c r="I39" s="5">
         <v>0.52438657407407407</v>
       </c>
-      <c r="J39" s="12">
+      <c r="J39" s="11">
         <v>0.52447916666666672</v>
       </c>
       <c r="K39" s="5">
         <v>0.52453703703703702</v>
       </c>
-      <c r="L39" s="12">
+      <c r="L39" s="11">
         <v>0.52464120370370371</v>
       </c>
       <c r="M39" s="5">
@@ -2985,7 +2981,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5">
@@ -3035,7 +3031,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="5">
@@ -3085,7 +3081,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5">
@@ -3094,7 +3090,7 @@
       <c r="D42" s="5">
         <v>0.60961805555555559</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E42" s="11">
         <f t="shared" si="2"/>
         <v>0.61065972222222231</v>
       </c>
@@ -3116,7 +3112,7 @@
       <c r="K42" s="5">
         <v>0.61259259259259258</v>
       </c>
-      <c r="L42" s="12">
+      <c r="L42" s="11">
         <v>0.61280092592592594</v>
       </c>
       <c r="M42" s="5">
@@ -3135,7 +3131,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>134</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="5">
@@ -3185,7 +3181,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>135</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5">
@@ -3235,7 +3231,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" t="s">
-        <v>5</v>
+        <v>136</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5">
@@ -3285,7 +3281,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" t="s">
-        <v>4</v>
+        <v>137</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="5">
@@ -3335,7 +3331,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" t="s">
-        <v>3</v>
+        <v>138</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5">
@@ -3385,7 +3381,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" t="s">
-        <v>2</v>
+        <v>139</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="5">
@@ -3435,7 +3431,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" t="s">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="5">
@@ -3485,7 +3481,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" t="s">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5">
@@ -3533,9 +3529,15 @@
       </c>
       <c r="Q50" s="5"/>
     </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3543,7 +3545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
@@ -3572,17 +3574,17 @@
       <c r="A2" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="12"/>
       <c r="C2" t="s">
         <v>74</v>
       </c>
       <c r="D2" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="11">
         <v>0.59921296296296289</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="11">
         <v>0.60600694444444447</v>
       </c>
     </row>
@@ -3590,17 +3592,17 @@
       <c r="A3" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="13"/>
+      <c r="B3" s="12"/>
       <c r="C3" t="s">
         <v>75</v>
       </c>
       <c r="D3" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <v>0.62321759259259257</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="11">
         <v>0.62892361111111106</v>
       </c>
     </row>
@@ -3608,7 +3610,7 @@
       <c r="A4" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="13"/>
+      <c r="B4" s="12"/>
       <c r="C4" t="s">
         <v>76</v>
       </c>
@@ -3618,7 +3620,7 @@
       <c r="E4" s="5">
         <v>0.65233796296296298</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>0.65812499999999996</v>
       </c>
     </row>
@@ -3626,7 +3628,7 @@
       <c r="A5" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="13"/>
+      <c r="B5" s="12"/>
       <c r="C5" t="s">
         <v>77</v>
       </c>
@@ -3636,7 +3638,7 @@
       <c r="E5" s="5">
         <v>0.67094907407407411</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>0.6759722222222222</v>
       </c>
     </row>
@@ -3644,7 +3646,7 @@
       <c r="A6" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="9"/>
       <c r="C6" t="s">
         <v>78</v>
       </c>
@@ -3699,10 +3701,10 @@
         <v>101</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <v>0.50486111111111109</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <v>0.50865740740740739</v>
       </c>
     </row>
@@ -3722,7 +3724,7 @@
       <c r="A12" t="s">
         <v>103</v>
       </c>
-      <c r="B12" s="10"/>
+      <c r="B12" s="9"/>
       <c r="C12" t="s">
         <v>79</v>
       </c>
@@ -3740,7 +3742,7 @@
       <c r="A13" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="10"/>
+      <c r="B13" s="9"/>
       <c r="C13" t="s">
         <v>80</v>
       </c>
@@ -4169,19 +4171,19 @@
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="10"/>
+      <c r="A53" s="9"/>
       <c r="B53" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="13"/>
+      <c r="A54" s="12"/>
       <c r="B54" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="11"/>
+      <c r="A55" s="10"/>
       <c r="B55" t="s">
         <v>90</v>
       </c>
@@ -4197,14 +4199,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="3" max="3" width="50.85546875" customWidth="1"/>
+    <col min="3" max="3" width="48.28515625" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" customWidth="1"/>
   </cols>
@@ -4222,10 +4224,10 @@
         <v>93</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <v>0.59921296296296289</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="11">
         <v>0.60600694444444447</v>
       </c>
     </row>
@@ -4233,14 +4235,14 @@
       <c r="A3" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="10"/>
+      <c r="B3" s="9"/>
       <c r="C3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D3" s="12">
+        <v>170</v>
+      </c>
+      <c r="D3" s="11">
         <v>0.62321759259259257</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <v>0.62892361111111106</v>
       </c>
     </row>
@@ -4248,14 +4250,14 @@
       <c r="A4" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="9"/>
       <c r="C4" t="s">
         <v>157</v>
       </c>
       <c r="D4" s="5">
         <v>0.65233796296296298</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>0.65812499999999996</v>
       </c>
     </row>
@@ -4263,11 +4265,11 @@
       <c r="A5" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="10"/>
       <c r="D5" s="5">
         <v>0.67094907407407411</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>0.6759722222222222</v>
       </c>
     </row>
@@ -4275,7 +4277,7 @@
       <c r="A6" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="10"/>
       <c r="D6" s="5">
         <v>0.69106481481481474</v>
       </c>
@@ -4324,10 +4326,10 @@
         <v>101</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <v>0.50486111111111109</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <v>0.50865740740740739</v>
       </c>
     </row>
@@ -4398,7 +4400,7 @@
       <c r="A15" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="10"/>
+      <c r="B15" s="9"/>
       <c r="C15" t="s">
         <v>157</v>
       </c>
@@ -4425,7 +4427,7 @@
       <c r="A17" t="s">
         <v>108</v>
       </c>
-      <c r="B17" s="10"/>
+      <c r="B17" s="9"/>
       <c r="C17" t="s">
         <v>157</v>
       </c>
@@ -4440,7 +4442,7 @@
       <c r="A18" t="s">
         <v>109</v>
       </c>
-      <c r="B18" s="10"/>
+      <c r="B18" s="9"/>
       <c r="C18" t="s">
         <v>157</v>
       </c>
@@ -4539,7 +4541,7 @@
       <c r="A26" t="s">
         <v>117</v>
       </c>
-      <c r="B26" s="10"/>
+      <c r="B26" s="9"/>
       <c r="C26" t="s">
         <v>157</v>
       </c>
@@ -4554,7 +4556,7 @@
       <c r="A27" t="s">
         <v>118</v>
       </c>
-      <c r="B27" s="10"/>
+      <c r="B27" s="9"/>
       <c r="C27" t="s">
         <v>157</v>
       </c>
@@ -4569,7 +4571,7 @@
       <c r="A28" t="s">
         <v>119</v>
       </c>
-      <c r="B28" s="10"/>
+      <c r="B28" s="9"/>
       <c r="C28" t="s">
         <v>157</v>
       </c>
@@ -4608,7 +4610,7 @@
       <c r="A31" t="s">
         <v>122</v>
       </c>
-      <c r="B31" s="10"/>
+      <c r="B31" s="9"/>
       <c r="C31" t="s">
         <v>157</v>
       </c>
@@ -4635,7 +4637,7 @@
       <c r="A33" t="s">
         <v>124</v>
       </c>
-      <c r="B33" s="11"/>
+      <c r="B33" s="10"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5">
         <v>0.44085648148148149</v>
@@ -4645,7 +4647,7 @@
       <c r="A34" t="s">
         <v>125</v>
       </c>
-      <c r="B34" s="11"/>
+      <c r="B34" s="10"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5">
         <v>0.453125</v>
@@ -4667,7 +4669,7 @@
       </c>
       <c r="B36" s="1"/>
       <c r="C36" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5">
@@ -4708,9 +4710,9 @@
       <c r="A40" t="s">
         <v>131</v>
       </c>
-      <c r="B40" s="10"/>
+      <c r="B40" s="9"/>
       <c r="C40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5">
@@ -4824,19 +4826,19 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="10"/>
+      <c r="A53" s="9"/>
       <c r="B53" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="13"/>
+      <c r="A54" s="12"/>
       <c r="B54" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="11"/>
+      <c r="A55" s="10"/>
       <c r="B55" t="s">
         <v>90</v>
       </c>
@@ -4874,8 +4876,8 @@
       <c r="A2" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
@@ -4909,43 +4911,43 @@
       <c r="A7" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>103</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
       <c r="D12" t="s">
         <v>155</v>
       </c>
@@ -4961,8 +4963,8 @@
       <c r="A14" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
       <c r="D14" t="s">
         <v>156</v>
       </c>
@@ -4999,15 +5001,15 @@
       <c r="A19" t="s">
         <v>110</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>111</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
@@ -5098,7 +5100,7 @@
         <v>124</v>
       </c>
       <c r="B33" s="1"/>
-      <c r="C33" s="14"/>
+      <c r="C33" s="13"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
@@ -5223,13 +5225,13 @@
       <c r="A52" s="1"/>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="10"/>
+      <c r="A53" s="9"/>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="13"/>
+      <c r="A54" s="12"/>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="11"/>
+      <c r="A55" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -5582,7 +5584,7 @@
       <c r="D32" s="1"/>
       <c r="E32" s="6"/>
       <c r="F32" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -5764,17 +5766,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
     <col min="3" max="3" width="66" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="30.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="50.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5801,7 +5803,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5814,7 +5816,7 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5920,13 +5922,13 @@
       <c r="A16" t="s">
         <v>107</v>
       </c>
-      <c r="B16" s="15"/>
+      <c r="B16" s="14"/>
       <c r="C16" t="s">
-        <v>164</v>
-      </c>
-      <c r="D16" s="15"/>
+        <v>163</v>
+      </c>
+      <c r="D16" s="14"/>
       <c r="E16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5991,9 +5993,6 @@
         <v>116</v>
       </c>
       <c r="B25" s="1"/>
-      <c r="C25" t="s">
-        <v>162</v>
-      </c>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:5">
@@ -6042,23 +6041,26 @@
       <c r="A32" t="s">
         <v>123</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="D32" s="15"/>
+      <c r="B32" s="14"/>
+      <c r="C32" t="s">
+        <v>168</v>
+      </c>
+      <c r="D32" s="14"/>
       <c r="E32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>124</v>
       </c>
-      <c r="B33" s="15"/>
+      <c r="B33" s="14"/>
       <c r="C33" t="s">
-        <v>166</v>
-      </c>
-      <c r="D33" s="15"/>
+        <v>165</v>
+      </c>
+      <c r="D33" s="14"/>
       <c r="E33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -6079,9 +6081,9 @@
       <c r="A36" t="s">
         <v>127</v>
       </c>
-      <c r="B36" s="3"/>
+      <c r="B36" s="14"/>
       <c r="C36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D36" s="1"/>
     </row>
@@ -6126,7 +6128,7 @@
       </c>
       <c r="B42" s="1"/>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>176</v>
       </c>
       <c r="D42" s="1"/>
     </row>
@@ -6137,7 +6139,7 @@
       <c r="B43" s="1"/>
       <c r="D43" s="3"/>
       <c r="E43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:5">
